--- a/data/testcase_data.xlsx
+++ b/data/testcase_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiabo/work/Appium_py3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6FC4FF-2F8B-294D-8A55-E81E2DAC6BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64590C9-0ACD-2C45-A291-C46C3B35EF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19060" xr2:uid="{15497922-E2C9-4643-9ADC-74E9C167D271}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="register" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,15 +56,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"username":'17626655372',"password":'abc-123456'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"suc":1,"assert":"登录成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login2</t>
+  </si>
+  <si>
+    <t>{"username":'17626655372',"password":'abc-123457'}</t>
+  </si>
+  <si>
+    <t>login3</t>
+  </si>
+  <si>
+    <t>{"username":'17626655372',"password":'abc-123458'}</t>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6C9C8C-2694-3149-AE94-95242684928E}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -467,17 +480,64 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F7A91-AD80-7C43-B6C2-14F4285840F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>